--- a/src/main/resources/Test.xlsx
+++ b/src/main/resources/Test.xlsx
@@ -16,27 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Emp id</t>
+    <t>Tests</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Passed</t>
   </si>
   <si>
-    <t>Salary</t>
+    <t>Failed</t>
   </si>
   <si>
-    <t>John</t>
+    <t>Unstable</t>
   </si>
   <si>
-    <t>Dean</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Cass</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -73,8 +67,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,71 +371,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="48.7109375" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42160</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>2000000</v>
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42167</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>420000</v>
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42174</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>280000</v>
+      <c r="E4">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42181</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>6000000</v>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
